--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cyient Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cyient Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
@@ -2375,16 +2375,16 @@
         <v>4.06</v>
       </c>
       <c r="W18">
-        <v>31.50578947368421</v>
+        <v>31.51</v>
       </c>
       <c r="X18">
-        <v>24.63789473684211</v>
+        <v>24.64</v>
       </c>
       <c r="Y18">
-        <v>68.4942105263158</v>
+        <v>68.48999999999999</v>
       </c>
       <c r="Z18">
-        <v>75.3621052631579</v>
+        <v>75.36</v>
       </c>
       <c r="AA18">
         <v>5980.3</v>
@@ -2399,7 +2399,7 @@
         <v>5.17</v>
       </c>
       <c r="AE18">
-        <v>68.48473684210525</v>
+        <v>68.48</v>
       </c>
       <c r="AF18">
         <v>2.98</v>
